--- a/validade.xlsx
+++ b/validade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinizjp/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinizjp/scripts/estoque_mome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CE2380-7364-8C40-B66A-00A8F861018C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C824D635-7A41-6F42-8633-C36026711D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="900" windowWidth="14440" windowHeight="18080" xr2:uid="{48D8AC83-AD85-A349-A2A8-97D101A60ED2}"/>
   </bookViews>
@@ -341,9 +341,6 @@
     <t>AROMATIZADOR DE LOJA 100 ML</t>
   </si>
   <si>
-    <t>cod</t>
-  </si>
-  <si>
     <t>produto</t>
   </si>
   <si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>data_vencimento</t>
+  </si>
+  <si>
+    <t>produto_id</t>
   </si>
 </sst>
 </file>
@@ -734,13 +734,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7ABE773-D3D6-6D4F-BFB3-36F9C293224A}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
@@ -748,19 +746,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">

--- a/validade.xlsx
+++ b/validade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinizjp/scripts/estoque_mome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C824D635-7A41-6F42-8633-C36026711D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E7EAA5-F755-0F4C-BBE2-4442E09EFEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="900" windowWidth="14440" windowHeight="18080" xr2:uid="{48D8AC83-AD85-A349-A2A8-97D101A60ED2}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{48D8AC83-AD85-A349-A2A8-97D101A60ED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -395,9 +395,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,7 +735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7ABE773-D3D6-6D4F-BFB3-36F9C293224A}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -771,6 +774,9 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="E2" s="2">
+        <v>45782</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">

--- a/validade.xlsx
+++ b/validade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinizjp/scripts/estoque_mome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E7EAA5-F755-0F4C-BBE2-4442E09EFEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2ED54D-4D71-BE48-83C0-66C6FD989A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{48D8AC83-AD85-A349-A2A8-97D101A60ED2}"/>
   </bookViews>
@@ -744,7 +744,7 @@
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -760,7 +760,7 @@
       <c r="D1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -773,9 +773,6 @@
       </c>
       <c r="C2">
         <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45782</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
